--- a/src/main/resources/static/file/sample.xlsx
+++ b/src/main/resources/static/file/sample.xlsx
@@ -8,13 +8,702 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>CODExBridge</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CODExBridge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이디가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기존</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가입된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이디와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중복될</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가입이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안됩니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CODExBridge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연락처는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삽입해야합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CODExBridge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이디는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중복</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중복된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이디가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엑셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시트에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체적으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원가입이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초기비밀번호로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1234</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등록됩니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
@@ -303,7 +992,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +1025,26 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -680,11 +1389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,7 +1406,7 @@
     <col min="7" max="8" width="13.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -723,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -749,7 +1458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -775,7 +1484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -801,7 +1510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -827,7 +1536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -853,7 +1562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -879,7 +1588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -905,7 +1614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -931,7 +1640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -957,7 +1666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -991,31 +1700,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>